--- a/bh3/544242802462395215_2021-07-06_15-00-02.xlsx
+++ b/bh3/544242802462395215_2021-07-06_15-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4854365570</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-09 08:27:02</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44386.35210648148</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -610,10 +624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-08 22:46:46</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44385.94914351852</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -673,10 +685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-08 20:55:31</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44385.87188657407</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -748,10 +758,8 @@
           <t>4854365570</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-08 18:05:52</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44385.75407407407</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -823,10 +831,8 @@
           <t>4854088434</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-08 17:13:25</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44385.71765046296</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -894,10 +900,8 @@
           <t>4854088434</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-08 17:05:15</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44385.71197916667</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -965,10 +969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-08 12:51:50</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44385.53599537037</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1032,10 +1034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-08 12:23:40</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44385.51643518519</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1107,10 +1107,8 @@
           <t>4864092165</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-08 12:13:27</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44385.50934027778</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1178,10 +1176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-08 11:30:57</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44385.47982638889</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1245,10 +1241,8 @@
           <t>4854088434</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-08 10:32:00</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44385.43888888889</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1316,10 +1310,8 @@
           <t>4854088434</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-08 10:28:57</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44385.43677083333</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1385,10 +1377,8 @@
           <t>4864514504</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-08 10:22:25</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44385.43223379629</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1464,10 +1454,8 @@
           <t>4864514504</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-08 10:22:11</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44385.43207175926</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1543,10 +1531,8 @@
           <t>4864514504</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-08 10:13:05</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44385.42575231481</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1618,10 +1604,8 @@
           <t>4853597272</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-08 09:55:53</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44385.41380787037</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1697,10 +1681,8 @@
           <t>4864429986</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-08 09:55:19</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44385.41341435185</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1776,10 +1758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-08 09:53:23</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44385.41207175926</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1855,10 +1835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-08 09:47:20</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44385.40787037037</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1930,10 +1908,8 @@
           <t>4854088434</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-08 09:26:44</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44385.39356481482</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2001,10 +1977,8 @@
           <t>4864316196</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-08 09:26:17</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44385.39325231482</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2080,10 +2054,8 @@
           <t>4864310008</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-08 09:25:20</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44385.39259259259</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2159,10 +2131,8 @@
           <t>4854365570</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-08 09:23:24</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44385.39125</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2230,10 +2200,8 @@
           <t>4864092165</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-08 08:25:57</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44385.35135416667</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2309,10 +2277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-08 07:45:09</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44385.32302083333</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2388,10 +2354,8 @@
           <t>4863950929</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-08 07:36:50</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44385.31724537037</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2494,10 +2458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-08 06:35:54</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44385.27493055556</v>
       </c>
       <c r="I28" t="n">
         <v>7</v>
@@ -2573,10 +2535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-08 06:34:18</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44385.27381944445</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2664,10 +2624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-08 00:04:08</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44385.00287037037</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
@@ -2735,10 +2693,8 @@
           <t>4862792397</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-07 23:23:11</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44384.97443287037</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2802,10 +2758,8 @@
           <t>4854088434</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-07 23:18:47</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44384.97137731482</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2869,10 +2823,8 @@
           <t>4853877347</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-07 22:35:16</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44384.9411574074</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2932,10 +2884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-07 22:12:09</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44384.92510416666</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3007,10 +2957,8 @@
           <t>4862270169</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-07 22:06:18</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44384.92104166667</v>
       </c>
       <c r="I35" t="n">
         <v>2</v>
@@ -3082,10 +3030,8 @@
           <t>4862262160</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-07 22:05:15</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44384.9203125</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3157,10 +3103,8 @@
           <t>4861826977</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-07 20:57:28</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44384.87324074074</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3220,10 +3164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-07 20:26:31</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44384.85174768518</v>
       </c>
       <c r="I38" t="n">
         <v>6</v>
@@ -3291,10 +3233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-07 20:25:02</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44384.85071759259</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
@@ -3362,10 +3302,8 @@
           <t>4855059480</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-07 19:35:44</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44384.81648148148</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3441,10 +3379,8 @@
           <t>4855059480</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-07 19:27:41</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44384.81089120371</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3508,10 +3444,8 @@
           <t>4854365570</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-07 18:37:53</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44384.77630787037</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3583,10 +3517,8 @@
           <t>4860812795</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-07 18:13:37</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44384.75945601852</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3662,10 +3594,8 @@
           <t>4860787175</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-07 18:09:06</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44384.75631944444</v>
       </c>
       <c r="I44" t="n">
         <v>2</v>
@@ -3737,10 +3667,8 @@
           <t>4860759958</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-07 18:05:37</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44384.75390046297</v>
       </c>
       <c r="I45" t="n">
         <v>2</v>
@@ -3812,10 +3740,8 @@
           <t>4860747474</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-07 18:02:33</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44384.75177083333</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3875,10 +3801,8 @@
           <t>4854088434</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-07 17:24:00</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44384.725</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3938,10 +3862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-07 16:51:24</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44384.70236111111</v>
       </c>
       <c r="I48" t="n">
         <v>8</v>
@@ -4011,10 +3933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-07 16:15:31</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44384.67744212963</v>
       </c>
       <c r="I49" t="n">
         <v>22</v>
@@ -4086,10 +4006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-07 15:32:12</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44384.64736111111</v>
       </c>
       <c r="I50" t="n">
         <v>6</v>
@@ -4153,10 +4071,8 @@
           <t>4853936117</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-07 14:47:36</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44384.61638888889</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4220,10 +4136,8 @@
           <t>4853597272</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-07 14:24:12</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44384.60013888889</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4299,10 +4213,8 @@
           <t>4859674833</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-07 14:20:47</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44384.5977662037</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4366,10 +4278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-07 14:12:43</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44384.59216435185</v>
       </c>
       <c r="I54" t="n">
         <v>8</v>
@@ -4445,10 +4355,8 @@
           <t>4855059480</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-07 13:57:13</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44384.58140046296</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4524,10 +4432,8 @@
           <t>4859567762</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-07 13:56:58</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44384.58122685185</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4599,10 +4505,8 @@
           <t>4859497462</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-07 13:42:51</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44384.57142361111</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4670,10 +4574,8 @@
           <t>4854396692</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-07 13:33:18</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44384.56479166666</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4741,10 +4643,8 @@
           <t>4854396692</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-07 13:19:52</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44384.55546296296</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4820,10 +4720,8 @@
           <t>4855228961</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-07 13:17:18</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44384.55368055555</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4891,10 +4789,8 @@
           <t>4854365570</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-07 13:11:35</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44384.54971064815</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4962,10 +4858,8 @@
           <t>4854396692</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-07 13:06:59</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44384.54651620371</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5033,10 +4927,8 @@
           <t>4854396692</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-07 13:05:45</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44384.54565972222</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5104,10 +4996,8 @@
           <t>4855228961</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-07 13:04:32</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44384.54481481481</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5175,10 +5065,8 @@
           <t>4854396692</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-07 13:02:29</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44384.5433912037</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5246,10 +5134,8 @@
           <t>4854088434</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-07 13:01:25</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44384.54265046296</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5317,10 +5203,8 @@
           <t>4859250154</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-07 12:55:54</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44384.53881944445</v>
       </c>
       <c r="I67" t="n">
         <v>8</v>
@@ -5392,10 +5276,8 @@
           <t>4859141975</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-07 12:39:12</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44384.52722222222</v>
       </c>
       <c r="I68" t="n">
         <v>4</v>
@@ -5467,10 +5349,8 @@
           <t>4859023118</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-07 12:28:03</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44384.51947916667</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5539,10 +5419,8 @@
           <t>4859033216</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-07 12:21:55</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44384.51521990741</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5610,10 +5488,8 @@
           <t>4859023118</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-07 12:20:24</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44384.51416666667</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5681,10 +5557,8 @@
           <t>4858859888</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-07 11:53:00</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44384.49513888889</v>
       </c>
       <c r="I72" t="n">
         <v>9</v>
@@ -5756,10 +5630,8 @@
           <t>4858856716</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-07 11:50:37</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44384.49348379629</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5831,10 +5703,8 @@
           <t>4855059480</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-07 11:44:14</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44384.48905092593</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5898,10 +5768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-07 11:37:41</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44384.48450231482</v>
       </c>
       <c r="I75" t="n">
         <v>17</v>
@@ -5965,10 +5833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-07 11:07:26</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44384.46349537037</v>
       </c>
       <c r="I76" t="n">
         <v>8</v>
@@ -6040,10 +5906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-07 11:03:17</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44384.46061342592</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6111,10 +5975,8 @@
           <t>4854365570</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-07 10:55:42</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44384.45534722223</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6186,10 +6048,8 @@
           <t>4853936117</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-07 10:55:30</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44384.45520833333</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6258,10 +6118,8 @@
           <t>4854365570</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-07 10:54:59</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44384.45484953704</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6333,10 +6191,8 @@
           <t>4858570237</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-07 10:54:17</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44384.45436342592</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6406,10 +6262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-07 10:41:02</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44384.44516203704</v>
       </c>
       <c r="I82" t="n">
         <v>12</v>
@@ -6481,10 +6335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-07 10:34:42</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44384.44076388889</v>
       </c>
       <c r="I83" t="n">
         <v>9</v>
@@ -6548,10 +6400,8 @@
           <t>4858329152</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-07 10:05:49</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44384.42070601852</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6623,10 +6473,8 @@
           <t>4858309183</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-07 10:01:20</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44384.4175925926</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6725,10 +6573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-07 09:51:28</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44384.41074074074</v>
       </c>
       <c r="I86" t="n">
         <v>7</v>
@@ -6804,10 +6650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-07 09:51:11</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44384.41054398148</v>
       </c>
       <c r="I87" t="n">
         <v>8</v>
@@ -6910,10 +6754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-07 09:50:45</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44384.41024305556</v>
       </c>
       <c r="I88" t="n">
         <v>8</v>
@@ -6989,10 +6831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-07 09:50:29</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44384.41005787037</v>
       </c>
       <c r="I89" t="n">
         <v>6</v>
@@ -7068,10 +6908,8 @@
           <t>4854088434</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-07 09:28:21</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44384.3946875</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7131,10 +6969,8 @@
           <t>4857505774</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-07 08:54:42</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44384.37131944444</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7206,10 +7042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-07 08:52:42</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44384.36993055556</v>
       </c>
       <c r="I92" t="n">
         <v>5</v>
@@ -7269,10 +7103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-07 08:52:24</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44384.36972222223</v>
       </c>
       <c r="I93" t="n">
         <v>6</v>
@@ -7332,10 +7164,8 @@
           <t>4857998420</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-07 08:39:30</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44384.36076388889</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7403,10 +7233,8 @@
           <t>4857505774</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-07 08:39:05</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44384.36047453704</v>
       </c>
       <c r="I95" t="n">
         <v>2</v>
@@ -7474,10 +7302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-07 08:36:55</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44384.35896990741</v>
       </c>
       <c r="I96" t="n">
         <v>3</v>
@@ -7549,10 +7375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-07 08:36:31</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44384.35869212963</v>
       </c>
       <c r="I97" t="n">
         <v>3</v>
@@ -7624,10 +7448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-07 08:32:48</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44384.35611111111</v>
       </c>
       <c r="I98" t="n">
         <v>2</v>
@@ -7687,10 +7509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-07 08:23:42</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44384.34979166667</v>
       </c>
       <c r="I99" t="n">
         <v>3</v>
@@ -7756,10 +7576,8 @@
           <t>4853936117</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-07 07:37:10</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44384.31747685185</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7839,10 +7657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-07 06:24:51</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44384.26725694445</v>
       </c>
       <c r="I101" t="n">
         <v>3</v>
@@ -7915,10 +7731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-07 06:19:32</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44384.26356481481</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7986,10 +7800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-07 04:27:46</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44384.18594907408</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -8061,10 +7873,8 @@
           <t>4857505774</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-07 02:59:51</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44384.12489583333</v>
       </c>
       <c r="I104" t="n">
         <v>2</v>
@@ -8136,10 +7946,8 @@
           <t>4853722381</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-07 02:59:10</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44384.1244212963</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8211,10 +8019,8 @@
           <t>4854271724</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-07 01:39:43</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44384.06924768518</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8286,10 +8092,8 @@
           <t>4854271724</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-07 01:19:50</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44384.05543981482</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8365,10 +8169,8 @@
           <t>4857071481</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-07 00:36:16</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44384.02518518519</v>
       </c>
       <c r="I108" t="n">
         <v>2</v>
@@ -8444,10 +8246,8 @@
           <t>4855059480</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-07 00:34:19</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44384.02383101852</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8523,10 +8323,8 @@
           <t>4857048348</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-07 00:31:18</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44384.02173611111</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8602,10 +8400,8 @@
           <t>4857030979</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-07 00:28:09</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44384.01954861111</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8681,10 +8477,8 @@
           <t>4854365570</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-07 00:20:31</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44384.01424768518</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8756,10 +8550,8 @@
           <t>4854081704</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-07 00:01:26</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44384.00099537037</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8832,10 +8624,8 @@
           <t>4856869168</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-07 00:00:25</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44384.00028935185</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8911,10 +8701,8 @@
           <t>4856776413</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-06 23:45:27</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44383.98989583334</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8982,10 +8770,8 @@
           <t>4854396692</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-06 23:26:14</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44383.97655092592</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9053,10 +8839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-06 23:10:50</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44383.96585648148</v>
       </c>
       <c r="I117" t="n">
         <v>6</v>
@@ -9120,10 +8904,8 @@
           <t>4856531643</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-06 23:10:38</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44383.96571759259</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9187,10 +8969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-06 22:53:10</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44383.95358796296</v>
       </c>
       <c r="I119" t="n">
         <v>2</v>
@@ -9254,10 +9034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-06 22:52:33</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44383.95315972222</v>
       </c>
       <c r="I120" t="n">
         <v>2</v>
@@ -9321,10 +9099,8 @@
           <t>4854271724</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-06 22:52:20</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44383.95300925926</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9396,10 +9172,8 @@
           <t>4853652069</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-06 22:33:35</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44383.93998842593</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9459,10 +9233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-06 22:27:20</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44383.93564814814</v>
       </c>
       <c r="I123" t="n">
         <v>13</v>
@@ -9538,10 +9310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-06 22:27:14</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44383.93557870371</v>
       </c>
       <c r="I124" t="n">
         <v>7</v>
@@ -9617,10 +9387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-06 22:27:11</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44383.93554398148</v>
       </c>
       <c r="I125" t="n">
         <v>8</v>
@@ -9696,10 +9464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-06 22:23:13</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44383.93278935185</v>
       </c>
       <c r="I126" t="n">
         <v>19</v>
@@ -9768,10 +9534,8 @@
           <t>4856183995</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-06 22:21:42</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44383.93173611111</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9839,10 +9603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-06 22:12:15</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44383.92517361111</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9910,10 +9672,8 @@
           <t>4853582450</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-06 22:10:56</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44383.92425925926</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9982,10 +9742,8 @@
           <t>4853686013</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-06 22:01:23</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44383.91762731481</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10061,10 +9819,8 @@
           <t>4856020875</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-06 21:58:17</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44383.91547453704</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10132,10 +9888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-06 21:42:01</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44383.90417824074</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10199,10 +9953,8 @@
           <t>4855684194</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-06 21:09:25</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44383.88153935185</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10271,10 +10023,8 @@
           <t>4855674325</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-06 21:08:32</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44383.88092592593</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10342,10 +10092,8 @@
           <t>4853936117</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-06 21:08:15</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44383.88072916667</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10413,10 +10161,8 @@
           <t>4853936117</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-06 21:07:18</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44383.88006944444</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10484,10 +10230,8 @@
           <t>4854518806</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-06 20:56:09</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44383.87232638889</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10563,10 +10307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-06 20:42:57</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44383.86315972222</v>
       </c>
       <c r="I138" t="n">
         <v>10</v>
@@ -10630,10 +10372,8 @@
           <t>4855059480</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-06 20:04:20</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44383.83634259259</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10698,10 +10438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-06 20:03:31</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44383.83577546296</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10769,10 +10507,8 @@
           <t>4855228961</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-06 19:59:18</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44383.83284722222</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10840,10 +10576,8 @@
           <t>4853964958</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-06 19:46:15</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44383.82378472222</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10907,10 +10641,8 @@
           <t>4855059480</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-06 19:32:47</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44383.81443287037</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10974,10 +10706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-06 19:30:49</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44383.81306712963</v>
       </c>
       <c r="I144" t="n">
         <v>8</v>
@@ -11045,10 +10775,8 @@
           <t>4855001044</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-06 19:22:52</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44383.8075462963</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11124,10 +10852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-06 19:17:21</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44383.80371527778</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11203,10 +10929,8 @@
           <t>4854952561</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-06 19:16:28</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44383.80310185185</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11282,10 +11006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-06 19:15:11</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44383.80221064815</v>
       </c>
       <c r="I148" t="n">
         <v>7</v>
@@ -11361,10 +11083,8 @@
           <t>4854918648</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-06 19:12:14</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44383.80016203703</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11432,10 +11152,8 @@
           <t>4854925530</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-06 19:11:22</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44383.79956018519</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11503,10 +11221,8 @@
           <t>4854904976</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-06 19:10:30</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44383.79895833333</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11578,10 +11294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-06 19:09:46</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44383.79844907407</v>
       </c>
       <c r="I152" t="n">
         <v>5</v>
@@ -11645,10 +11359,8 @@
           <t>4853993739</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-06 19:04:42</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44383.79493055555</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11716,10 +11428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-06 19:03:30</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44383.79409722222</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11795,10 +11505,8 @@
           <t>4854162568</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-06 19:02:06</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44383.793125</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11866,10 +11574,8 @@
           <t>4853993739</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-06 19:01:05</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44383.79241898148</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11933,10 +11639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:57:14</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44383.78974537037</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -12004,10 +11708,8 @@
           <t>4853964958</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:50:33</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44383.78510416667</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12071,10 +11773,8 @@
           <t>4853964958</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:49:17</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44383.78422453703</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12138,10 +11838,8 @@
           <t>4853993739</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:46:13</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44383.78209490741</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12209,10 +11907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:45:29</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44383.78158564815</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12284,10 +11980,8 @@
           <t>4854733924</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:44:14</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44383.78071759259</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12355,10 +12049,8 @@
           <t>4854719987</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:42:32</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44383.77953703704</v>
       </c>
       <c r="I163" t="n">
         <v>3</v>
@@ -12435,10 +12127,8 @@
           <t>4854713919</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:41:18</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44383.77868055556</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12506,10 +12196,8 @@
           <t>4853700532</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:41:17</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44383.77866898148</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12577,10 +12265,8 @@
           <t>4854701773</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:38:57</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44383.77704861111</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12648,10 +12334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:38:30</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44383.77673611111</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12719,10 +12403,8 @@
           <t>4854693823</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:38:26</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44383.77668981482</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -12790,10 +12472,8 @@
           <t>4854691048</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:37:14</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44383.77585648148</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12861,10 +12541,8 @@
           <t>4854673364</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:35:18</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44383.77451388889</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12940,10 +12618,8 @@
           <t>4854629829</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:29:09</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44383.77024305556</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13011,10 +12687,8 @@
           <t>4854365570</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:28:51</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44383.77003472222</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13082,10 +12756,8 @@
           <t>4854396692</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:24:17</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44383.76686342592</v>
       </c>
       <c r="I173" t="n">
         <v>2</v>
@@ -13165,10 +12837,8 @@
           <t>4853811200</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:20:20</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44383.76412037037</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13240,10 +12910,8 @@
           <t>4854396692</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:16:29</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44383.76144675926</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13311,10 +12979,8 @@
           <t>4854396692</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:16:09</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44383.76121527778</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13390,10 +13056,8 @@
           <t>4854396692</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:13:00</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44383.75902777778</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13461,10 +13125,8 @@
           <t>4854535376</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:12:31</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44383.75869212963</v>
       </c>
       <c r="I178" t="n">
         <v>3</v>
@@ -13536,10 +13198,8 @@
           <t>4854518806</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:11:42</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44383.758125</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13608,10 +13268,8 @@
           <t>4854513332</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:10:19</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44383.75716435185</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13680,10 +13338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:10:04</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44383.75699074074</v>
       </c>
       <c r="I181" t="n">
         <v>13</v>
@@ -13747,10 +13403,8 @@
           <t>4854365570</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:09:51</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44383.75684027778</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13818,10 +13472,8 @@
           <t>4854396692</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:09:16</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44383.75643518518</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13897,10 +13549,8 @@
           <t>4854507793</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:09:09</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44383.75635416667</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13976,10 +13626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:08:35</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44383.75596064814</v>
       </c>
       <c r="I185" t="n">
         <v>22</v>
@@ -14047,10 +13695,8 @@
           <t>4854396692</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:07:53</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44383.75547453704</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14122,10 +13768,8 @@
           <t>4854497680</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:07:44</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44383.75537037037</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14185,10 +13829,8 @@
           <t>4854500488</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:07:32</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44383.75523148148</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14266,10 +13908,8 @@
           <t>4853811200</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:06:50</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44383.75474537037</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14337,10 +13977,8 @@
           <t>4854396692</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:06:34</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44383.75456018518</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14408,10 +14046,8 @@
           <t>4854365570</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:03:42</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44383.75256944444</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14479,10 +14115,8 @@
           <t>4854294614</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:02:33</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44383.75177083333</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14558,10 +14192,8 @@
           <t>4854449349</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:01:09</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44383.75079861111</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14629,10 +14261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-06 18:01:02</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44383.75071759259</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14700,10 +14330,8 @@
           <t>4854443852</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:59:26</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44383.74960648148</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14771,10 +14399,8 @@
           <t>4853597272</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:58:51</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44383.74920138889</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14850,10 +14476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:57:56</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44383.74856481481</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14917,10 +14541,8 @@
           <t>4854396692</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:57:25</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44383.74820601852</v>
       </c>
       <c r="I198" t="n">
         <v>3</v>
@@ -14992,10 +14614,8 @@
           <t>4853700532</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:57:11</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44383.74804398148</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15067,10 +14687,8 @@
           <t>4854365570</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:56:57</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44383.74788194444</v>
       </c>
       <c r="I200" t="n">
         <v>2</v>
@@ -15138,10 +14756,8 @@
           <t>4854396692</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:56:41</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44383.74769675926</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -15217,10 +14833,8 @@
           <t>4854426011</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:55:35</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44383.74693287037</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15288,10 +14902,8 @@
           <t>4854396692</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:55:30</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44383.746875</v>
       </c>
       <c r="I203" t="n">
         <v>2</v>
@@ -15355,10 +14967,8 @@
           <t>4854271724</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:54:04</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44383.74587962963</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15426,10 +15036,8 @@
           <t>4854411712</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:53:28</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44383.74546296296</v>
       </c>
       <c r="I205" t="n">
         <v>2</v>
@@ -15493,10 +15101,8 @@
           <t>4854396692</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:52:10</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44383.74456018519</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15560,10 +15166,8 @@
           <t>4853582450</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:51:15</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44383.74392361111</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15627,10 +15231,8 @@
           <t>4854396692</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:50:59</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44383.74373842592</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15721,10 +15323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:50:44</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44383.74356481482</v>
       </c>
       <c r="I209" t="n">
         <v>8</v>
@@ -15784,10 +15384,8 @@
           <t>4854365570</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:50:42</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44383.74354166666</v>
       </c>
       <c r="I210" t="n">
         <v>2</v>
@@ -15855,10 +15453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:50:40</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44383.74351851852</v>
       </c>
       <c r="I211" t="n">
         <v>3</v>
@@ -15936,10 +15532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:50:32</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44383.74342592592</v>
       </c>
       <c r="I212" t="n">
         <v>5</v>
@@ -16017,10 +15611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:50:15</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44383.74322916667</v>
       </c>
       <c r="I213" t="n">
         <v>6</v>
@@ -16080,10 +15672,8 @@
           <t>4854365570</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:50:13</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44383.74320601852</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16155,10 +15745,8 @@
           <t>4853664654</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:49:19</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44383.74258101852</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16222,10 +15810,8 @@
           <t>4853800008</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:49:01</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44383.74237268518</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16301,10 +15887,8 @@
           <t>4854211173</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:48:21</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44383.74190972222</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16372,10 +15956,8 @@
           <t>4854381390</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:48:18</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44383.741875</v>
       </c>
       <c r="I218" t="n">
         <v>4</v>
@@ -16443,10 +16025,8 @@
           <t>4854380091</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:47:39</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44383.74142361111</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16516,10 +16096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:47:13</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44383.74112268518</v>
       </c>
       <c r="I220" t="n">
         <v>23</v>
@@ -16583,10 +16161,8 @@
           <t>4854088434</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:47:06</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44383.74104166667</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16654,10 +16230,8 @@
           <t>4854364290</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:46:34</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44383.7406712963</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16725,10 +16299,8 @@
           <t>4854358532</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:45:44</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44383.74009259259</v>
       </c>
       <c r="I223" t="n">
         <v>3</v>
@@ -16805,10 +16377,8 @@
           <t>4854365570</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:45:17</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44383.73978009259</v>
       </c>
       <c r="I224" t="n">
         <v>10</v>
@@ -16872,10 +16442,8 @@
           <t>4854356030</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:44:20</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44383.73912037037</v>
       </c>
       <c r="I225" t="n">
         <v>9</v>
@@ -16952,10 +16520,8 @@
           <t>4854349837</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:44:17</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44383.73908564815</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17031,10 +16597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:43:59</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44383.73887731481</v>
       </c>
       <c r="I227" t="n">
         <v>6</v>
@@ -17098,10 +16662,8 @@
           <t>4853992391</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:41:49</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44383.73737268519</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17169,10 +16731,8 @@
           <t>4854337297</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:40:57</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44383.73677083333</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17248,10 +16808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:40:49</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44383.73667824074</v>
       </c>
       <c r="I230" t="n">
         <v>10</v>
@@ -17323,10 +16881,8 @@
           <t>4854271724</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:40:37</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44383.73653935185</v>
       </c>
       <c r="I231" t="n">
         <v>6</v>
@@ -17394,10 +16950,8 @@
           <t>4854328522</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:40:05</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44383.73616898148</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17465,10 +17019,8 @@
           <t>4854095315</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:38:11</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44383.73484953704</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17563,10 +17115,8 @@
           <t>4853964958</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:36:27</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44383.73364583333</v>
       </c>
       <c r="I234" t="n">
         <v>2</v>
@@ -17638,10 +17188,8 @@
           <t>4853936117</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:35:43</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44383.73313657408</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17709,10 +17257,8 @@
           <t>4854294879</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:34:30</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44383.73229166667</v>
       </c>
       <c r="I236" t="n">
         <v>2</v>
@@ -17780,10 +17326,8 @@
           <t>4854294614</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:34:22</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44383.73219907407</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17859,10 +17403,8 @@
           <t>4854128303</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:34:00</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44383.73194444444</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17955,10 +17497,8 @@
           <t>4854128303</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:33:05</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44383.73130787037</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18030,10 +17570,8 @@
           <t>4853936117</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:32:18</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44383.73076388889</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -18109,10 +17647,8 @@
           <t>4854281414</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:30:28</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44383.72949074074</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18184,10 +17720,8 @@
           <t>4854271724</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:29:59</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44383.72915509259</v>
       </c>
       <c r="I242" t="n">
         <v>2</v>
@@ -18263,10 +17797,8 @@
           <t>4854280122</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:29:45</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44383.72899305556</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18342,10 +17874,8 @@
           <t>4854265155</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:26:57</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44383.72704861111</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18417,10 +17947,8 @@
           <t>4854254262</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:26:24</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44383.72666666667</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -18488,10 +18016,8 @@
           <t>4854088434</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:26:14</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44383.72655092592</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18563,10 +18089,8 @@
           <t>4854244006</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:26:00</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44383.72638888889</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18630,10 +18154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:22:05</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44383.72366898148</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18709,10 +18231,8 @@
           <t>4854125611</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:20:29</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44383.72255787037</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18780,10 +18300,8 @@
           <t>4854211173</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:19:07</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44383.7216087963</v>
       </c>
       <c r="I250" t="n">
         <v>7</v>
@@ -18843,10 +18361,8 @@
           <t>4854125611</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:18:35</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44383.72123842593</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18914,10 +18430,8 @@
           <t>4854197744</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:17:13</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44383.72028935186</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18981,10 +18495,8 @@
           <t>4853846179</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:15:51</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44383.71934027778</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -19052,10 +18564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:15:43</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44383.71924768519</v>
       </c>
       <c r="I254" t="n">
         <v>5</v>
@@ -19127,10 +18637,8 @@
           <t>4854183809</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:15:06</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44383.71881944445</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19230,10 +18738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:14:37</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44383.7184837963</v>
       </c>
       <c r="I256" t="n">
         <v>33</v>
@@ -19305,10 +18811,8 @@
           <t>4854009643</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:13:29</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44383.71769675926</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19368,10 +18872,8 @@
           <t>4853846179</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:13:10</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44383.71747685185</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19439,10 +18941,8 @@
           <t>4853808326</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:12:28</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44383.71699074074</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19514,10 +19014,8 @@
           <t>4854176590</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:12:01</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44383.71667824074</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19581,10 +19079,8 @@
           <t>4854125611</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:11:17</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44383.71616898148</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19652,10 +19148,8 @@
           <t>4854158880</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:10:29</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44383.71561342593</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19719,10 +19213,8 @@
           <t>4854162568</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:09:54</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44383.71520833333</v>
       </c>
       <c r="I263" t="n">
         <v>4</v>
@@ -19798,10 +19290,8 @@
           <t>4854153657</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:09:22</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44383.71483796297</v>
       </c>
       <c r="I264" t="n">
         <v>3</v>
@@ -19869,10 +19359,8 @@
           <t>4854152263</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:08:36</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44383.71430555556</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19944,10 +19432,8 @@
           <t>4853714977</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:08:30</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44383.71423611111</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -20007,10 +19493,8 @@
           <t>4853664654</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:07:29</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44383.71353009259</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20087,10 +19571,8 @@
           <t>4853903251</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:05:18</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44383.71201388889</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20166,10 +19648,8 @@
           <t>4854128303</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:04:46</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44383.71164351852</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20241,10 +19721,8 @@
           <t>4854125611</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:03:15</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44383.71059027778</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20312,10 +19790,8 @@
           <t>4853714977</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:02:54</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44383.71034722222</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20375,10 +19851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:02:41</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44383.71019675926</v>
       </c>
       <c r="I272" t="n">
         <v>8</v>
@@ -20446,10 +19920,8 @@
           <t>4854119201</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:02:35</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44383.71012731481</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20521,10 +19993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:01:32</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44383.70939814814</v>
       </c>
       <c r="I274" t="n">
         <v>205</v>
@@ -20596,10 +20066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-06 17:01:01</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44383.70903935185</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20667,10 +20135,8 @@
           <t>4854104179</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:59:53</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44383.70825231481</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20744,10 +20210,8 @@
           <t>4854098444</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:59:18</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44383.70784722222</v>
       </c>
       <c r="I277" t="n">
         <v>5</v>
@@ -20815,10 +20279,8 @@
           <t>4853936117</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:59:13</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44383.70778935185</v>
       </c>
       <c r="I278" t="n">
         <v>3</v>
@@ -20886,10 +20348,8 @@
           <t>4853964958</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:58:27</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44383.70725694444</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20957,10 +20417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:58:11</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44383.70707175926</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -21024,10 +20482,8 @@
           <t>4853993739</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:57:39</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44383.70670138889</v>
       </c>
       <c r="I281" t="n">
         <v>2</v>
@@ -21095,10 +20551,8 @@
           <t>4854095315</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:57:33</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44383.70663194444</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21172,10 +20626,8 @@
           <t>4854095089</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:57:25</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44383.70653935185</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21251,10 +20703,8 @@
           <t>4854088434</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:56:42</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44383.70604166666</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21330,10 +20780,8 @@
           <t>4854009643</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:56:29</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44383.7058912037</v>
       </c>
       <c r="I285" t="n">
         <v>2</v>
@@ -21401,10 +20849,8 @@
           <t>4854083214</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:56:21</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44383.70579861111</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21476,10 +20922,8 @@
           <t>4853714977</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:56:09</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44383.70565972223</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21539,10 +20983,8 @@
           <t>4853678043</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:55:44</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44383.70537037037</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21610,10 +21052,8 @@
           <t>4854081704</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:55:29</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44383.70519675926</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21685,10 +21125,8 @@
           <t>4853903251</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:55:17</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44383.70505787037</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21760,10 +21198,8 @@
           <t>4853582450</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:54:42</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44383.70465277778</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21835,10 +21271,8 @@
           <t>4854069838</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:54:26</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44383.70446759259</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21906,10 +21340,8 @@
           <t>4854078239</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:54:21</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44383.70440972222</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21985,10 +21417,8 @@
           <t>4853800008</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:53:42</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44383.70395833333</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22064,10 +21494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:53:14</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44383.70363425926</v>
       </c>
       <c r="I295" t="n">
         <v>5</v>
@@ -22131,10 +21559,8 @@
           <t>4854067622</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:53:09</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44383.70357638889</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22198,10 +21624,8 @@
           <t>4853903251</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:52:55</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44383.70341435185</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22277,10 +21701,8 @@
           <t>4853652686</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:52:41</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44383.70325231482</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22356,10 +21778,8 @@
           <t>4853991945</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:50:57</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44383.70204861111</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22437,10 +21857,8 @@
           <t>4853686013</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:50:56</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44383.70203703704</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22516,10 +21934,8 @@
           <t>4853664654</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:50:20</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44383.70162037037</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22595,10 +22011,8 @@
           <t>4853714977</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:50:12</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44383.70152777778</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22662,10 +22076,8 @@
           <t>4854052474</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:50:11</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44383.70151620371</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22737,10 +22149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:49:17</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44383.70089120371</v>
       </c>
       <c r="I304" t="n">
         <v>6</v>
@@ -22804,10 +22214,8 @@
           <t>4853990885</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:48:40</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44383.70046296297</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22875,10 +22283,8 @@
           <t>4853686013</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:47:05</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44383.69936342593</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22954,10 +22360,8 @@
           <t>4853990885</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:46:29</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44383.69894675926</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -23029,10 +22433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:46:22</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44383.69886574074</v>
       </c>
       <c r="I308" t="n">
         <v>4</v>
@@ -23108,10 +22510,8 @@
           <t>4853596550</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:46:01</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44383.69862268519</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23179,10 +22579,8 @@
           <t>4853903251</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:45:44</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44383.69842592593</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23254,10 +22652,8 @@
           <t>4853991945</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:45:07</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44383.69799768519</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23333,10 +22729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:44:21</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44383.69746527778</v>
       </c>
       <c r="I312" t="n">
         <v>9</v>
@@ -23412,10 +22806,8 @@
           <t>4854009643</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:43:03</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44383.6965625</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23502,10 +22894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:43:00</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44383.69652777778</v>
       </c>
       <c r="I314" t="n">
         <v>11</v>
@@ -23581,10 +22971,8 @@
           <t>4853990885</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:42:54</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44383.69645833333</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23648,10 +23036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:42:49</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44383.69640046296</v>
       </c>
       <c r="I316" t="n">
         <v>7</v>
@@ -23727,10 +23113,8 @@
           <t>4854013792</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:42:45</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44383.69635416667</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23790,10 +23174,8 @@
           <t>4854013616</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:42:39</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44383.69628472222</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23888,10 +23270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:41:28</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44383.69546296296</v>
       </c>
       <c r="I319" t="n">
         <v>22</v>
@@ -23967,10 +23347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:41:24</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44383.69541666667</v>
       </c>
       <c r="I320" t="n">
         <v>90</v>
@@ -24065,10 +23443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:41:06</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44383.69520833333</v>
       </c>
       <c r="I321" t="n">
         <v>14</v>
@@ -24144,10 +23520,8 @@
           <t>4854000860</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:40:28</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44383.69476851852</v>
       </c>
       <c r="I322" t="n">
         <v>5</v>
@@ -24219,10 +23593,8 @@
           <t>4853990885</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:40:02</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44383.69446759259</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24294,10 +23666,8 @@
           <t>4853993739</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:39:45</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44383.69427083333</v>
       </c>
       <c r="I324" t="n">
         <v>9</v>
@@ -24361,10 +23731,8 @@
           <t>4853992391</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:38:55</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44383.69369212963</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24432,10 +23800,8 @@
           <t>4853991945</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:38:38</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44383.69349537037</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24511,10 +23877,8 @@
           <t>4854000860</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:38:25</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44383.69334490741</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24591,10 +23955,8 @@
           <t>4853991251</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:38:13</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44383.69320601852</v>
       </c>
       <c r="I328" t="n">
         <v>5</v>
@@ -24670,10 +24032,8 @@
           <t>4853990885</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:38:01</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44383.69306712963</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24750,10 +24110,8 @@
           <t>4853990110</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:37:31</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44383.69271990741</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24829,10 +24187,8 @@
           <t>4853582450</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:37:16</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44383.6925462963</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24904,10 +24260,8 @@
           <t>4853984538</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:37:13</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44383.69251157407</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24983,10 +24337,8 @@
           <t>4853979541</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:37:10</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44383.69247685185</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -25062,10 +24414,8 @@
           <t>4853833522</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:37:08</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44383.6924537037</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -25133,10 +24483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:36:22</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44383.6919212963</v>
       </c>
       <c r="I335" t="n">
         <v>7</v>
@@ -25208,10 +24556,8 @@
           <t>4853983084</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:36:20</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44383.69189814815</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25287,10 +24633,8 @@
           <t>4853964958</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:36:11</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44383.69179398148</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25366,10 +24710,8 @@
           <t>4853714977</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:36:06</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44383.69173611111</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25441,10 +24783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:36:00</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44383.69166666667</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -25523,10 +24863,8 @@
           <t>4853982462</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:35:59</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44383.6916550926</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25602,10 +24940,8 @@
           <t>4853985651</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:35:22</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44383.69122685185</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25681,10 +25017,8 @@
           <t>4853981466</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:35:22</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44383.69122685185</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25764,10 +25098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:35:01</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44383.6909837963</v>
       </c>
       <c r="I343" t="n">
         <v>7</v>
@@ -25839,10 +25171,8 @@
           <t>4853964958</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:34:19</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44383.69049768519</v>
       </c>
       <c r="I344" t="n">
         <v>10</v>
@@ -25914,10 +25244,8 @@
           <t>4853964312</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:33:55</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44383.69021990741</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25989,10 +25317,8 @@
           <t>4853582450</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:33:38</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44383.69002314815</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -26068,10 +25394,8 @@
           <t>4853963422</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:33:22</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44383.68983796296</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -26139,10 +25463,8 @@
           <t>4853967888</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:33:15</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44383.68975694444</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -26218,10 +25540,8 @@
           <t>4853582450</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:31:42</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44383.68868055556</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26297,10 +25617,8 @@
           <t>4853714977</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:29:18</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44383.68701388889</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26360,10 +25678,8 @@
           <t>4853903251</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:29:04</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44383.68685185185</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26439,10 +25755,8 @@
           <t>4853945915</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:28:47</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44383.68665509259</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26518,10 +25832,8 @@
           <t>4853945737</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:28:40</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44383.68657407408</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26589,10 +25901,8 @@
           <t>4853714977</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:27:43</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44383.68591435185</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26652,10 +25962,8 @@
           <t>4853686013</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:26:30</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44383.68506944444</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26731,10 +26039,8 @@
           <t>4853936117</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:26:15</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44383.68489583334</v>
       </c>
       <c r="I356" t="n">
         <v>2</v>
@@ -26794,10 +26100,8 @@
           <t>4853582450</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:23:55</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44383.68327546296</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26869,10 +26173,8 @@
           <t>4853577732</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:23:41</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44383.68311342593</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26948,10 +26250,8 @@
           <t>4853925968</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:23:32</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44383.68300925926</v>
       </c>
       <c r="I359" t="n">
         <v>1</v>
@@ -27027,10 +26327,8 @@
           <t>4853730879</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:22:18</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44383.68215277778</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -27102,10 +26400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:21:59</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44383.68193287037</v>
       </c>
       <c r="I361" t="n">
         <v>32</v>
@@ -27177,10 +26473,8 @@
           <t>4853714977</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:21:58</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44383.68192129629</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -27240,10 +26534,8 @@
           <t>4853903251</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:20:36</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44383.68097222222</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27315,10 +26607,8 @@
           <t>4853862121</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:20:16</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44383.68074074074</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -27394,10 +26684,8 @@
           <t>4853910637</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:20:15</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44383.68072916667</v>
       </c>
       <c r="I365" t="n">
         <v>1</v>
@@ -27461,10 +26749,8 @@
           <t>4853800008</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:19:39</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44383.6803125</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27543,10 +26829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:19:17</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44383.68005787037</v>
       </c>
       <c r="I367" t="n">
         <v>17</v>
@@ -27630,10 +26914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:19:03</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44383.67989583333</v>
       </c>
       <c r="I368" t="n">
         <v>38</v>
@@ -27705,10 +26987,8 @@
           <t>4853714977</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:18:58</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44383.67983796296</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27768,10 +27048,8 @@
           <t>4853686013</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:18:41</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44383.6796412037</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27847,10 +27125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:18:31</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44383.67952546296</v>
       </c>
       <c r="I371" t="n">
         <v>3</v>
@@ -27918,10 +27194,8 @@
           <t>4853893442</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:18:29</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44383.67950231482</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27985,10 +27259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:18:17</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44383.67936342592</v>
       </c>
       <c r="I373" t="n">
         <v>12</v>
@@ -28060,10 +27332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:17:48</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44383.67902777778</v>
       </c>
       <c r="I374" t="n">
         <v>5</v>
@@ -28135,10 +27405,8 @@
           <t>4853896219</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:17:31</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44383.67883101852</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -28202,10 +27470,8 @@
           <t>4853888407</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:17:29</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44383.67880787037</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -28265,10 +27531,8 @@
           <t>4853896144</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:17:28</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44383.6787962963</v>
       </c>
       <c r="I377" t="n">
         <v>5</v>
@@ -28350,10 +27614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:17:10</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44383.67858796296</v>
       </c>
       <c r="I378" t="n">
         <v>10</v>
@@ -28417,10 +27679,8 @@
           <t>4853865454</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:17:09</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44383.67857638889</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -28492,10 +27752,8 @@
           <t>4853582450</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:17:02</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44383.67849537037</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28567,10 +27825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:16:52</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44383.67837962963</v>
       </c>
       <c r="I381" t="n">
         <v>9</v>
@@ -28634,10 +27890,8 @@
           <t>4853800008</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:16:49</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44383.67834490741</v>
       </c>
       <c r="I382" t="n">
         <v>10</v>
@@ -28705,10 +27959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:16:33</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44383.67815972222</v>
       </c>
       <c r="I383" t="n">
         <v>23</v>
@@ -28776,10 +28028,8 @@
           <t>4853886011</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:15:56</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44383.67773148148</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28843,10 +28093,8 @@
           <t>4853833522</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:15:52</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44383.67768518518</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28910,10 +28158,8 @@
           <t>4853882657</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:15:20</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44383.67731481481</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28985,10 +28231,8 @@
           <t>4853867785</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:15:14</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44383.67724537037</v>
       </c>
       <c r="I387" t="n">
         <v>3</v>
@@ -29060,10 +28304,8 @@
           <t>4853664654</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:14:53</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44383.67700231481</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -29139,10 +28381,8 @@
           <t>4853877347</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:14:45</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44383.67690972222</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -29214,10 +28454,8 @@
           <t>4853714977</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:13:29</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44383.6760300926</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -29277,10 +28515,8 @@
           <t>4853875147</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:13:25</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44383.6759837963</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29352,10 +28588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:13:09</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44383.67579861111</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -29427,10 +28661,8 @@
           <t>4853871596</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:13:07</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44383.67577546297</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29502,10 +28734,8 @@
           <t>4853830026</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:13:06</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44383.67576388889</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29581,10 +28811,8 @@
           <t>4853577732</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:12:50</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44383.6755787037</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29660,10 +28888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:12:33</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44383.67538194444</v>
       </c>
       <c r="I396" t="n">
         <v>19</v>
@@ -29739,10 +28965,8 @@
           <t>4853870653</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:12:31</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44383.6753587963</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29814,10 +29038,8 @@
           <t>4853867785</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:12:20</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44383.67523148148</v>
       </c>
       <c r="I398" t="n">
         <v>1</v>
@@ -29889,10 +29111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:12:07</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44383.67508101852</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29964,10 +29184,8 @@
           <t>4853714977</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:11:56</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44383.6749537037</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -30027,10 +29245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:11:49</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44383.67487268519</v>
       </c>
       <c r="I401" t="n">
         <v>4</v>
@@ -30103,10 +29319,8 @@
           <t>4853742268</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:11:43</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44383.67480324074</v>
       </c>
       <c r="I402" t="n">
         <v>2</v>
@@ -30182,10 +29396,8 @@
           <t>4853862121</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:11:36</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44383.67472222223</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -30257,10 +29469,8 @@
           <t>4853763643</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:11:28</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44383.67462962963</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30336,10 +29546,8 @@
           <t>4853847969</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:11:26</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44383.67460648148</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30407,10 +29615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:10:55</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44383.67424768519</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30478,10 +29684,8 @@
           <t>4853865454</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:10:55</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44383.67424768519</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30553,10 +29757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:10:18</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44383.67381944445</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30632,10 +29834,8 @@
           <t>4853849313</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:09:51</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44383.67350694445</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30707,10 +29907,8 @@
           <t>4853830026</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:09:51</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44383.67350694445</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30782,10 +29980,8 @@
           <t>4853848252</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:09:12</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44383.67305555556</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30853,10 +30049,8 @@
           <t>4853830026</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:08:37</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44383.67265046296</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30920,10 +30114,8 @@
           <t>4853846179</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:07:56</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44383.67217592592</v>
       </c>
       <c r="I413" t="n">
         <v>3</v>
@@ -30995,10 +30187,8 @@
           <t>4853850295</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:07:45</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44383.67204861111</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -31062,10 +30252,8 @@
           <t>4853845876</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:07:45</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44383.67204861111</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -31141,10 +30329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:07:40</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44383.67199074074</v>
       </c>
       <c r="I416" t="n">
         <v>7</v>
@@ -31212,10 +30398,8 @@
           <t>4853830026</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:07:14</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44383.67168981482</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31279,10 +30463,8 @@
           <t>4853842487</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:07:11</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44383.67165509259</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31358,10 +30540,8 @@
           <t>4853834759</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:07:02</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44383.67155092592</v>
       </c>
       <c r="I419" t="n">
         <v>2</v>
@@ -31433,10 +30613,8 @@
           <t>4853841763</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:06:41</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44383.67130787037</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31503,10 +30681,8 @@
           <t>4853838411</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:06:35</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44383.67123842592</v>
       </c>
       <c r="I421" t="n">
         <v>4</v>
@@ -31578,10 +30754,8 @@
           <t>4853833522</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:06:14</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44383.67099537037</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31649,10 +30823,8 @@
           <t>4853796308</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:06:06</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44383.67090277778</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31712,10 +30884,8 @@
           <t>4853840213</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:05:40</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44383.67060185185</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31779,10 +30949,8 @@
           <t>4853835654</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:04:49</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44383.67001157408</v>
       </c>
       <c r="I425" t="n">
         <v>2</v>
@@ -31850,10 +31018,8 @@
           <t>4853582450</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:04:21</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44383.6696875</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31921,10 +31087,8 @@
           <t>4853830026</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:03:59</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44383.66943287037</v>
       </c>
       <c r="I427" t="n">
         <v>1</v>
@@ -32000,10 +31164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:03:18</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44383.66895833334</v>
       </c>
       <c r="I428" t="n">
         <v>3</v>
@@ -32063,10 +31225,8 @@
           <t>4853577732</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:02:56</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44383.6687037037</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -32142,10 +31302,8 @@
           <t>4853825061</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:02:14</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44383.6682175926</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -32213,10 +31371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:02:12</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44383.66819444444</v>
       </c>
       <c r="I431" t="n">
         <v>12</v>
@@ -32280,10 +31436,8 @@
           <t>4853821118</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:01:56</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44383.66800925926</v>
       </c>
       <c r="I432" t="n">
         <v>3</v>
@@ -32343,10 +31497,8 @@
           <t>4853820194</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:01:20</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44383.6675925926</v>
       </c>
       <c r="I433" t="n">
         <v>1</v>
@@ -32418,10 +31570,8 @@
           <t>4853809325</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:00:47</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44383.66721064815</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32493,10 +31643,8 @@
           <t>4853714977</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:00:24</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44383.66694444444</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32564,10 +31712,8 @@
           <t>4853808326</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:00:09</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44383.66677083333</v>
       </c>
       <c r="I436" t="n">
         <v>5</v>
@@ -32643,10 +31789,8 @@
           <t>4853730879</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:00:08</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44383.66675925926</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32706,10 +31850,8 @@
           <t>4853803960</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:00:04</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44383.66671296296</v>
       </c>
       <c r="I438" t="n">
         <v>1</v>
@@ -32789,10 +31931,8 @@
           <t>4853811200</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:59:38</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44383.66641203704</v>
       </c>
       <c r="I439" t="n">
         <v>1</v>
@@ -32865,10 +32005,8 @@
           <t>4853714872</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:59:33</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44383.66635416666</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32936,10 +32074,8 @@
           <t>4853807362</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:59:31</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44383.66633101852</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -33015,10 +32151,8 @@
           <t>4853690430</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:59:30</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44383.66631944444</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -33094,10 +32228,8 @@
           <t>4853800008</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:59:13</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44383.66612268519</v>
       </c>
       <c r="I443" t="n">
         <v>3</v>
@@ -33173,10 +32305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:58:56</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44383.66592592592</v>
       </c>
       <c r="I444" t="n">
         <v>2</v>
@@ -33240,10 +32370,8 @@
           <t>4853801478</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:58:29</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44383.66561342592</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -33319,10 +32447,8 @@
           <t>4853670067</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:58:03</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44383.6653125</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -33398,10 +32524,8 @@
           <t>4853800008</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:57:31</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44383.66494212963</v>
       </c>
       <c r="I447" t="n">
         <v>68</v>
@@ -33469,10 +32593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:57:24</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44383.66486111111</v>
       </c>
       <c r="I448" t="n">
         <v>12</v>
@@ -33541,10 +32663,8 @@
           <t>4853797838</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:57:20</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44383.66481481482</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33620,10 +32740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:56:57</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44383.66454861111</v>
       </c>
       <c r="I450" t="n">
         <v>3</v>
@@ -33698,10 +32816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:56:28</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44383.66421296296</v>
       </c>
       <c r="I451" t="n">
         <v>24</v>
@@ -33780,10 +32896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:56:18</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44383.66409722222</v>
       </c>
       <c r="I452" t="n">
         <v>13</v>
@@ -33860,10 +32974,8 @@
           <t>4853796308</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:56:15</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44383.6640625</v>
       </c>
       <c r="I453" t="n">
         <v>2</v>
@@ -33940,10 +33052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:56:07</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44383.66396990741</v>
       </c>
       <c r="I454" t="n">
         <v>6</v>
@@ -34021,10 +33131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:55:49</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44383.66376157408</v>
       </c>
       <c r="I455" t="n">
         <v>4</v>
@@ -34100,10 +33208,8 @@
           <t>4853791632</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:55:46</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44383.66372685185</v>
       </c>
       <c r="I456" t="n">
         <v>1</v>
@@ -34179,10 +33285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:55:43</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44383.66369212963</v>
       </c>
       <c r="I457" t="n">
         <v>7</v>
@@ -34279,10 +33383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:55:36</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44383.66361111111</v>
       </c>
       <c r="I458" t="n">
         <v>6</v>
@@ -34363,10 +33465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:55:31</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44383.66355324074</v>
       </c>
       <c r="I459" t="n">
         <v>7</v>
@@ -34442,10 +33542,8 @@
           <t>4853714977</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:55:30</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44383.66354166667</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -34517,10 +33615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:55:26</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44383.66349537037</v>
       </c>
       <c r="I461" t="n">
         <v>23</v>
@@ -34596,10 +33692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:55:12</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44383.66333333333</v>
       </c>
       <c r="I462" t="n">
         <v>5</v>
@@ -34676,10 +33770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:54:42</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44383.66298611111</v>
       </c>
       <c r="I463" t="n">
         <v>5</v>
@@ -34755,10 +33847,8 @@
           <t>4853670067</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:54:30</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44383.66284722222</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34834,10 +33924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:53:56</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44383.66245370371</v>
       </c>
       <c r="I465" t="n">
         <v>52</v>
@@ -34921,10 +34009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:52:16</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44383.6612962963</v>
       </c>
       <c r="I466" t="n">
         <v>57</v>
@@ -34988,10 +34074,8 @@
           <t>4853714977</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:51:37</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44383.6608449074</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -35063,10 +34147,8 @@
           <t>4853763643</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:50:54</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44383.66034722222</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -35135,10 +34217,8 @@
           <t>4853763643</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:50:32</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44383.6600925926</v>
       </c>
       <c r="I469" t="n">
         <v>2</v>
@@ -35206,10 +34286,8 @@
           <t>4853758986</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:50:16</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44383.6599074074</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -35277,10 +34355,8 @@
           <t>4853757930</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:49:34</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44383.6594212963</v>
       </c>
       <c r="I471" t="n">
         <v>1</v>
@@ -35356,10 +34432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:49:14</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44383.65918981482</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -35431,10 +34505,8 @@
           <t>4853714977</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:48:55</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44383.65896990741</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35498,10 +34570,8 @@
           <t>4853765023</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:48:27</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44383.65864583333</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35573,10 +34643,8 @@
           <t>4853756146</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:48:24</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44383.65861111111</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35636,10 +34704,8 @@
           <t>4853755759</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:48:09</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44383.6584375</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35707,10 +34773,8 @@
           <t>4853652686</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:47:50</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44383.65821759259</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35783,10 +34847,8 @@
           <t>4853582450</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:47:36</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44383.65805555556</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35862,10 +34924,8 @@
           <t>4853657364</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:47:25</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44383.65792824074</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35941,10 +35001,8 @@
           <t>4853744618</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:47:23</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44383.65790509259</v>
       </c>
       <c r="I480" t="n">
         <v>3</v>
@@ -36016,10 +35074,8 @@
           <t>4853582450</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:47:21</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44383.65788194445</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -36095,10 +35151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:46:17</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44383.6571412037</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -36166,10 +35220,8 @@
           <t>4853742268</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:45:51</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44383.65684027778</v>
       </c>
       <c r="I483" t="n">
         <v>4</v>
@@ -36241,10 +35293,8 @@
           <t>4853746519</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:45:45</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44383.65677083333</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -36315,10 +35365,8 @@
           <t>4853751043</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:45:43</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44383.65674768519</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -36394,10 +35442,8 @@
           <t>4853714977</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:43:54</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44383.65548611111</v>
       </c>
       <c r="I486" t="n">
         <v>1</v>
@@ -36469,10 +35515,8 @@
           <t>4853733761</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:43:53</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44383.65547453704</v>
       </c>
       <c r="I487" t="n">
         <v>1</v>
@@ -36536,10 +35580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:43:29</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44383.65519675926</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36615,10 +35657,8 @@
           <t>4853705026</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:43:29</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44383.65519675926</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36686,10 +35726,8 @@
           <t>4853728128</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:43:07</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44383.65494212963</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36761,10 +35799,8 @@
           <t>4853736586</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:42:43</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44383.65466435185</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36837,10 +35873,8 @@
           <t>4853705026</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:42:41</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44383.65464120371</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36908,10 +35942,8 @@
           <t>4853731820</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:42:38</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44383.65460648148</v>
       </c>
       <c r="I493" t="n">
         <v>3</v>
@@ -36975,10 +36007,8 @@
           <t>4853714872</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:42:36</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44383.65458333334</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -37046,10 +36076,8 @@
           <t>4853705026</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:42:22</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44383.6544212963</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -37117,10 +36145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:42:16</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44383.65435185185</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -37188,10 +36214,8 @@
           <t>4853735829</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:42:11</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44383.65429398148</v>
       </c>
       <c r="I497" t="n">
         <v>3</v>
@@ -37267,10 +36291,8 @@
           <t>4853726578</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:42:06</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44383.65423611111</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -37342,10 +36364,8 @@
           <t>4853730879</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:42:03</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44383.65420138889</v>
       </c>
       <c r="I499" t="n">
         <v>5</v>
@@ -37417,10 +36437,8 @@
           <t>4853714977</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:42:02</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44383.65418981481</v>
       </c>
       <c r="I500" t="n">
         <v>1</v>
@@ -37492,10 +36510,8 @@
           <t>4853714977</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:41:01</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44383.6534837963</v>
       </c>
       <c r="I501" t="n">
         <v>1</v>
@@ -37555,10 +36571,8 @@
           <t>4853714872</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:40:57</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44383.6534375</v>
       </c>
       <c r="I502" t="n">
         <v>6</v>
@@ -37622,10 +36636,8 @@
           <t>4853705026</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:40:55</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44383.65341435185</v>
       </c>
       <c r="I503" t="n">
         <v>1</v>
@@ -37701,10 +36713,8 @@
           <t>4853714012</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:40:23</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44383.65304398148</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37768,10 +36778,8 @@
           <t>4853713769</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:40:14</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44383.65293981481</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37835,10 +36843,8 @@
           <t>4853722381</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:39:51</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44383.65267361111</v>
       </c>
       <c r="I506" t="n">
         <v>1</v>
@@ -37910,10 +36916,8 @@
           <t>4853686013</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:39:42</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44383.65256944444</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37987,10 +36991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:39:27</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44383.65239583333</v>
       </c>
       <c r="I508" t="n">
         <v>12</v>
@@ -38058,10 +37060,8 @@
           <t>4853705026</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:38:57</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44383.65204861111</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -38129,10 +37129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:38:37</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44383.65181712963</v>
       </c>
       <c r="I510" t="n">
         <v>2</v>
@@ -38200,10 +37198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:37:59</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44383.65137731482</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -38276,10 +37272,8 @@
           <t>4853705026</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:37:28</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44383.65101851852</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -38347,10 +37341,8 @@
           <t>4853698886</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:37:00</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44383.65069444444</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -38427,10 +37419,8 @@
           <t>4853708063</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:36:52</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44383.65060185185</v>
       </c>
       <c r="I514" t="n">
         <v>1</v>
@@ -38506,10 +37496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:36:28</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44383.65032407407</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -38577,10 +37565,8 @@
           <t>4853697481</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:36:05</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44383.65005787037</v>
       </c>
       <c r="I516" t="n">
         <v>2</v>
@@ -38656,10 +37642,8 @@
           <t>4853701833</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:36:02</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44383.65002314815</v>
       </c>
       <c r="I517" t="n">
         <v>18</v>
@@ -38723,10 +37707,8 @@
           <t>4853701811</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:36:01</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44383.65001157407</v>
       </c>
       <c r="I518" t="n">
         <v>4</v>
@@ -38802,10 +37784,8 @@
           <t>4853686013</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:35:46</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44383.64983796296</v>
       </c>
       <c r="I519" t="n">
         <v>2</v>
@@ -38877,10 +37857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:35:45</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44383.64982638889</v>
       </c>
       <c r="I520" t="n">
         <v>16</v>
@@ -38948,10 +37926,8 @@
           <t>4853706346</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:35:43</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44383.64980324074</v>
       </c>
       <c r="I521" t="n">
         <v>8</v>
@@ -39027,10 +38003,8 @@
           <t>4853700532</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:35:10</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44383.64942129629</v>
       </c>
       <c r="I522" t="n">
         <v>5</v>
@@ -39098,10 +38072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:35:05</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44383.64936342592</v>
       </c>
       <c r="I523" t="n">
         <v>29</v>
@@ -39169,10 +38141,8 @@
           <t>4853695741</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:34:56</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44383.64925925926</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -39248,10 +38218,8 @@
           <t>4853667882</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:34:52</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44383.64921296296</v>
       </c>
       <c r="I525" t="n">
         <v>2</v>
@@ -39319,10 +38287,8 @@
           <t>4853705026</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:34:50</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44383.64918981482</v>
       </c>
       <c r="I526" t="n">
         <v>2</v>
@@ -39398,10 +38364,8 @@
           <t>4853694810</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:34:41</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44383.64908564815</v>
       </c>
       <c r="I527" t="n">
         <v>8</v>
@@ -39469,10 +38433,8 @@
           <t>4853667859</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:34:32</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44383.64898148148</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39548,10 +38510,8 @@
           <t>4853689607</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:34:31</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44383.64896990741</v>
       </c>
       <c r="I529" t="n">
         <v>19</v>
@@ -39627,10 +38587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:34:26</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44383.64891203704</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39706,10 +38664,8 @@
           <t>4853686013</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:34:08</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44383.6487037037</v>
       </c>
       <c r="I531" t="n">
         <v>2</v>
@@ -39781,10 +38737,8 @@
           <t>4853606298</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:33:23</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44383.64818287037</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39860,10 +38814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:33:13</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44383.64806712963</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39939,10 +38891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:32:57</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44383.64788194445</v>
       </c>
       <c r="I534" t="n">
         <v>11</v>
@@ -40002,10 +38952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:32:53</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44383.64783564815</v>
       </c>
       <c r="I535" t="n">
         <v>14</v>
@@ -40081,10 +39029,8 @@
           <t>4853691684</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:32:35</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44383.64762731481</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -40160,10 +39106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:32:19</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44383.64744212963</v>
       </c>
       <c r="I537" t="n">
         <v>6</v>
@@ -40235,10 +39179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:32:08</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44383.64731481481</v>
       </c>
       <c r="I538" t="n">
         <v>5</v>
@@ -40310,10 +39252,8 @@
           <t>4853686013</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:31:58</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44383.64719907408</v>
       </c>
       <c r="I539" t="n">
         <v>22</v>
@@ -40391,10 +39331,8 @@
           <t>4853667882</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:31:52</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44383.64712962963</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -40462,10 +39400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:31:49</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44383.64709490741</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -40537,10 +39473,8 @@
           <t>4853690430</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:31:44</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44383.64703703704</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -40604,10 +39538,8 @@
           <t>4853667882</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:31:30</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44383.646875</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -40675,10 +39607,8 @@
           <t>4853667882</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:30:43</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44383.64633101852</v>
       </c>
       <c r="I544" t="n">
         <v>2</v>
@@ -40746,10 +39676,8 @@
           <t>4853669214</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:30:36</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44383.64625</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40821,10 +39749,8 @@
           <t>4853577732</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:30:36</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44383.64625</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40896,10 +39822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:30:13</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44383.6459837963</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40975,10 +39899,8 @@
           <t>4853678043</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:30:03</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44383.64586805556</v>
       </c>
       <c r="I548" t="n">
         <v>6</v>
@@ -41050,10 +39972,8 @@
           <t>4853582450</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:29:55</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44383.64577546297</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -41129,10 +40049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:29:51</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44383.64572916667</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -41208,10 +40126,8 @@
           <t>4853657364</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:29:47</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44383.64568287037</v>
       </c>
       <c r="I551" t="n">
         <v>10</v>
@@ -41275,10 +40191,8 @@
           <t>4853667882</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:29:41</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44383.64561342593</v>
       </c>
       <c r="I552" t="n">
         <v>1</v>
@@ -41346,10 +40260,8 @@
           <t>4853667859</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:29:40</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44383.64560185185</v>
       </c>
       <c r="I553" t="n">
         <v>1</v>
@@ -41421,10 +40333,8 @@
           <t>4853577732</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:28:54</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44383.64506944444</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -41492,10 +40402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:28:50</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44383.64502314815</v>
       </c>
       <c r="I555" t="n">
         <v>3</v>
@@ -41567,10 +40475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:28:19</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44383.64466435185</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41630,10 +40536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:28:19</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44383.64466435185</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -41709,10 +40613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:28:19</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44383.64466435185</v>
       </c>
       <c r="I558" t="n">
         <v>19</v>
@@ -41772,10 +40674,8 @@
           <t>4853675007</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:27:58</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44383.6444212963</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41839,10 +40739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:27:49</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44383.64431712963</v>
       </c>
       <c r="I560" t="n">
         <v>12</v>
@@ -41910,10 +40808,8 @@
           <t>4853670067</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:27:47</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44383.64429398148</v>
       </c>
       <c r="I561" t="n">
         <v>4</v>
@@ -41989,10 +40885,8 @@
           <t>4853664654</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:27:43</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44383.64424768519</v>
       </c>
       <c r="I562" t="n">
         <v>15</v>
@@ -42064,10 +40958,8 @@
           <t>4853577732</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:27:35</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44383.6441550926</v>
       </c>
       <c r="I563" t="n">
         <v>2</v>
@@ -42143,10 +41035,8 @@
           <t>4853663824</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:27:11</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44383.64387731482</v>
       </c>
       <c r="I564" t="n">
         <v>1</v>
@@ -42223,10 +41113,8 @@
           <t>4853597272</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:26:34</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44383.64344907407</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -42298,10 +41186,8 @@
           <t>4853652686</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:26:06</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44383.643125</v>
       </c>
       <c r="I566" t="n">
         <v>4</v>
@@ -42377,10 +41263,8 @@
           <t>4853657364</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:25:56</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44383.64300925926</v>
       </c>
       <c r="I567" t="n">
         <v>8</v>
@@ -42452,10 +41336,8 @@
           <t>4853597272</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:25:43</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44383.64285879629</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -42531,10 +41413,8 @@
           <t>4853652069</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:25:40</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44383.64282407407</v>
       </c>
       <c r="I569" t="n">
         <v>3</v>
@@ -42602,10 +41482,8 @@
           <t>4853661615</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:25:39</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44383.6428125</v>
       </c>
       <c r="I570" t="n">
         <v>19</v>
@@ -42681,10 +41559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:25:16</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44383.64254629629</v>
       </c>
       <c r="I571" t="n">
         <v>12</v>
@@ -42752,10 +41628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:24:31</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44383.64202546296</v>
       </c>
       <c r="I572" t="n">
         <v>7</v>
@@ -42831,10 +41705,8 @@
           <t>4853597272</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:22:32</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44383.64064814815</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42906,10 +41778,8 @@
           <t>4853582450</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:22:23</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44383.64054398148</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42977,10 +41847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:21:58</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44383.64025462963</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -43044,10 +41912,8 @@
           <t>4853636752</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:21:51</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44383.64017361111</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -43111,10 +41977,8 @@
           <t>4853577732</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:21:14</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44383.63974537037</v>
       </c>
       <c r="I577" t="n">
         <v>16</v>
@@ -43186,10 +42050,8 @@
           <t>4853597272</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:21:10</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44383.63969907408</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -43265,10 +42127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:20:41</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44383.63936342593</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -43328,10 +42188,8 @@
           <t>4853597272</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:20:08</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44383.63898148148</v>
       </c>
       <c r="I580" t="n">
         <v>2</v>
@@ -43403,10 +42261,8 @@
           <t>4853577732</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:18:44</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44383.63800925926</v>
       </c>
       <c r="I581" t="n">
         <v>14</v>
@@ -43478,10 +42334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:18:20</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44383.63773148148</v>
       </c>
       <c r="I582" t="n">
         <v>142</v>
@@ -43549,10 +42403,8 @@
           <t>4853620500</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:17:21</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44383.63704861111</v>
       </c>
       <c r="I583" t="n">
         <v>6</v>
@@ -43612,10 +42464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:17:00</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44383.63680555556</v>
       </c>
       <c r="I584" t="n">
         <v>1</v>
@@ -43683,10 +42533,8 @@
           <t>4853617941</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:16:18</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44383.63631944444</v>
       </c>
       <c r="I585" t="n">
         <v>12</v>
@@ -43758,10 +42606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:15:56</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44383.63606481482</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -43837,10 +42683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:15:33</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44383.63579861111</v>
       </c>
       <c r="I587" t="n">
         <v>98</v>
@@ -43904,10 +42748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:14:53</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44383.63533564815</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43975,10 +42817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:14:46</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44383.63525462963</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -44042,10 +42882,8 @@
           <t>4853606298</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:14:22</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44383.63497685185</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -44117,10 +42955,8 @@
           <t>4853604555</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:14:00</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44383.63472222222</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -44192,10 +43028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:13:54</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44383.63465277778</v>
       </c>
       <c r="I592" t="n">
         <v>313</v>
@@ -44271,10 +43105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:13:21</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44383.63427083333</v>
       </c>
       <c r="I593" t="n">
         <v>129</v>
@@ -44342,10 +43174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:13:03</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44383.6340625</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -44409,10 +43239,8 @@
           <t>4853600720</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:12:17</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44383.63353009259</v>
       </c>
       <c r="I595" t="n">
         <v>1</v>
@@ -44488,10 +43316,8 @@
           <t>4853597272</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:12:16</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44383.63351851852</v>
       </c>
       <c r="I596" t="n">
         <v>4</v>
@@ -44567,10 +43393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:12:06</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44383.63340277778</v>
       </c>
       <c r="I597" t="n">
         <v>15</v>
@@ -44630,10 +43454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:12:04</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44383.63337962963</v>
       </c>
       <c r="I598" t="n">
         <v>2</v>
@@ -44709,10 +43531,8 @@
           <t>4853596550</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:11:46</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44383.63317129629</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -44780,10 +43600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:11:45</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44383.63315972222</v>
       </c>
       <c r="I600" t="n">
         <v>1</v>
@@ -44859,10 +43677,8 @@
           <t>4853600720</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:11:24</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44383.63291666667</v>
       </c>
       <c r="I601" t="n">
         <v>2</v>
@@ -44938,10 +43754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:11:14</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44383.63280092592</v>
       </c>
       <c r="I602" t="n">
         <v>2</v>
@@ -45017,10 +43831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:10:40</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44383.63240740741</v>
       </c>
       <c r="I603" t="n">
         <v>41</v>
@@ -45088,10 +43900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:10:26</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44383.63224537037</v>
       </c>
       <c r="I604" t="n">
         <v>1</v>
@@ -45167,10 +43977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:09:55</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44383.63188657408</v>
       </c>
       <c r="I605" t="n">
         <v>1</v>
@@ -45246,10 +44054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:09:54</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44383.631875</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -45314,10 +44120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:09:51</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44383.63184027778</v>
       </c>
       <c r="I607" t="n">
         <v>1</v>
@@ -45385,10 +44189,8 @@
           <t>4853582450</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:09:37</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44383.63167824074</v>
       </c>
       <c r="I608" t="n">
         <v>18</v>
@@ -45460,10 +44262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:09:28</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44383.63157407408</v>
       </c>
       <c r="I609" t="n">
         <v>1</v>
@@ -45531,10 +44331,8 @@
           <t>4853577732</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:09:27</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44383.6315625</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -45602,10 +44400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:09:20</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44383.63148148148</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -45673,10 +44469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:09:19</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44383.63146990741</v>
       </c>
       <c r="I612" t="n">
         <v>1</v>
@@ -45748,10 +44542,8 @@
           <t>4853582450</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:09:02</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44383.63127314814</v>
       </c>
       <c r="I613" t="n">
         <v>85</v>
@@ -45827,10 +44619,8 @@
           <t>4853577732</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:08:23</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44383.63082175926</v>
       </c>
       <c r="I614" t="n">
         <v>1</v>
@@ -45898,10 +44688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:08:07</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44383.63063657407</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45969,10 +44757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:08:04</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44383.63060185185</v>
       </c>
       <c r="I616" t="n">
         <v>3</v>
@@ -46040,10 +44826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:07:27</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44383.63017361111</v>
       </c>
       <c r="I617" t="n">
         <v>5</v>
@@ -46115,10 +44899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:06:58</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44383.62983796297</v>
       </c>
       <c r="I618" t="n">
         <v>579</v>
@@ -46190,10 +44972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:06:40</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44383.62962962963</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -46265,10 +45045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:06:38</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44383.62960648148</v>
       </c>
       <c r="I620" t="n">
         <v>5</v>
@@ -46340,10 +45118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:06:29</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44383.62950231481</v>
       </c>
       <c r="I621" t="n">
         <v>55</v>
@@ -46415,10 +45191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:05:35</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44383.62887731481</v>
       </c>
       <c r="I622" t="n">
         <v>10</v>
@@ -46494,10 +45268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:05:01</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44383.6284837963</v>
       </c>
       <c r="I623" t="n">
         <v>3</v>
@@ -46569,10 +45341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:04:52</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44383.62837962963</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -46648,10 +45418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:04:43</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44383.62827546296</v>
       </c>
       <c r="I625" t="n">
         <v>4</v>
@@ -46715,10 +45483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:04:23</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44383.62804398148</v>
       </c>
       <c r="I626" t="n">
         <v>930</v>
@@ -46786,10 +45552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:04:13</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44383.62792824074</v>
       </c>
       <c r="I627" t="n">
         <v>2</v>
@@ -46861,10 +45625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:04:01</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44383.62778935185</v>
       </c>
       <c r="I628" t="n">
         <v>12</v>
@@ -46936,10 +45698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:04:01</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44383.62778935185</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -47015,10 +45775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:03:52</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44383.62768518519</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
@@ -47094,10 +45852,8 @@
           <t>4853554134</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:03:31</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44383.62744212963</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -47161,10 +45917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:03:27</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44383.62739583333</v>
       </c>
       <c r="I632" t="n">
         <v>2</v>
@@ -47240,10 +45994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:03:27</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44383.62739583333</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
@@ -47320,10 +46072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:03:27</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44383.62739583333</v>
       </c>
       <c r="I634" t="n">
         <v>1</v>
@@ -47401,10 +46151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:03:10</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44383.62719907407</v>
       </c>
       <c r="I635" t="n">
         <v>18</v>
@@ -47473,10 +46221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:03:08</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44383.62717592593</v>
       </c>
       <c r="I636" t="n">
         <v>19</v>
@@ -47544,10 +46290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:03:00</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44383.62708333333</v>
       </c>
       <c r="I637" t="n">
         <v>1</v>
@@ -47619,10 +46363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:02:47</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44383.62693287037</v>
       </c>
       <c r="I638" t="n">
         <v>1</v>
@@ -47699,10 +46441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:02:37</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44383.62681712963</v>
       </c>
       <c r="I639" t="n">
         <v>6</v>
@@ -47770,10 +46510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:01:44</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44383.6262037037</v>
       </c>
       <c r="I640" t="n">
         <v>1</v>
@@ -47845,10 +46583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:01:24</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44383.62597222222</v>
       </c>
       <c r="I641" t="n">
         <v>3</v>
@@ -47924,10 +46660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:01:12</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44383.62583333333</v>
       </c>
       <c r="I642" t="n">
         <v>2</v>
@@ -48003,10 +46737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:01:02</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44383.62571759259</v>
       </c>
       <c r="I643" t="n">
         <v>4</v>
@@ -48082,10 +46814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:00:35</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44383.62540509259</v>
       </c>
       <c r="I644" t="n">
         <v>17</v>
@@ -48153,10 +46883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:00:28</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44383.62532407408</v>
       </c>
       <c r="I645" t="n">
         <v>1</v>
